--- a/02 screening results.xlsx
+++ b/02 screening results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Paper\MDE4DTs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02D5301-D5A0-4C94-BE2A-621956C1473A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDC9590-84C8-429C-83EC-2314DF1255F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exclusion Results'!$A$1:$G$186</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Exclusion Results'!$A$2:$G$191</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="950">
   <si>
     <t>Editor</t>
   </si>
@@ -2937,12 +2937,15 @@
   <si>
     <t>NOk</t>
   </si>
+  <si>
+    <t>Inclusion Criteria</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3059,6 +3062,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3080,7 +3089,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3124,6 +3133,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3360,84 +3378,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:K923"/>
+  <dimension ref="A1:K924"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="A7:F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="95.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="95.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="79.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="12.5703125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="25" t="s">
+        <v>949</v>
+      </c>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="24" t="s">
+        <v>923</v>
+      </c>
+      <c r="G1" s="26" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="24"/>
+      <c r="B2" s="13" t="s">
         <v>926</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>927</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D2" s="13" t="s">
         <v>921</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E2" s="13" t="s">
         <v>920</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>923</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>606</v>
-      </c>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-    </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="14" t="s">
+      <c r="F2" s="24"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="B2" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>929</v>
-      </c>
-      <c r="G2" t="s">
-        <v>925</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="14" t="s">
         <v>922</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -3452,15 +3456,19 @@
       <c r="F3" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" t="s">
         <v>925</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="14" t="s">
-        <v>717</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>922</v>
       </c>
       <c r="C4" s="14" t="s">
@@ -3475,76 +3483,82 @@
       <c r="F4" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="10" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>717</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="G5" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B6" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="12" t="s">
+      <c r="E6" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="G6" s="12" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>613</v>
       </c>
-      <c r="B6" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B7" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="10" t="s">
+      <c r="E7" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="12" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="B8" s="14" t="s">
         <v>922</v>
@@ -3558,18 +3572,16 @@
       <c r="E8" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G8" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>314</v>
+        <v>49</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>922</v>
@@ -3583,14 +3595,20 @@
       <c r="E9" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G9" s="12" t="s">
         <v>925</v>
       </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>511</v>
+        <v>314</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>922</v>
@@ -3604,14 +3622,16 @@
       <c r="E10" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G10" s="12" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>318</v>
+        <v>511</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>922</v>
@@ -3625,14 +3645,16 @@
       <c r="E11" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G11" s="12" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>80</v>
+        <v>318</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>922</v>
@@ -3646,14 +3668,16 @@
       <c r="E12" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G12" s="12" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>720</v>
+      <c r="A13" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>922</v>
@@ -3667,14 +3691,16 @@
       <c r="E13" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F13" s="14"/>
+      <c r="F13" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G13" s="12" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>448</v>
+      <c r="A14" s="14" t="s">
+        <v>720</v>
       </c>
       <c r="B14" s="14" t="s">
         <v>922</v>
@@ -3688,14 +3714,16 @@
       <c r="E14" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G14" s="12" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>35</v>
+        <v>448</v>
       </c>
       <c r="B15" s="14" t="s">
         <v>922</v>
@@ -3709,14 +3737,16 @@
       <c r="E15" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G15" s="12" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>620</v>
+    <row r="16" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>922</v>
@@ -3730,18 +3760,16 @@
       <c r="E16" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G16" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>728</v>
+    </row>
+    <row r="17" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>620</v>
       </c>
       <c r="B17" s="14" t="s">
         <v>922</v>
@@ -3755,14 +3783,20 @@
       <c r="E17" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F17" s="14"/>
+      <c r="F17" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G17" s="12" t="s">
         <v>925</v>
       </c>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
     </row>
     <row r="18" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>922</v>
@@ -3776,14 +3810,16 @@
       <c r="E18" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F18" s="14"/>
+      <c r="F18" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G18" s="12" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="19" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>119</v>
+      <c r="A19" s="14" t="s">
+        <v>734</v>
       </c>
       <c r="B19" s="14" t="s">
         <v>922</v>
@@ -3797,14 +3833,16 @@
       <c r="E19" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F19" s="7"/>
+      <c r="F19" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G19" s="12" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="20" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="B20" s="14" t="s">
         <v>922</v>
@@ -3818,18 +3856,16 @@
       <c r="E20" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G20" s="12" t="s">
         <v>925</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>479</v>
+        <v>141</v>
       </c>
       <c r="B21" s="14" t="s">
         <v>922</v>
@@ -3843,14 +3879,20 @@
       <c r="E21" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F21" s="7"/>
+      <c r="F21" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G21" s="12" t="s">
         <v>925</v>
       </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
     </row>
     <row r="22" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>152</v>
+        <v>479</v>
       </c>
       <c r="B22" s="14" t="s">
         <v>922</v>
@@ -3864,14 +3906,16 @@
       <c r="E22" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F22" s="7"/>
+      <c r="F22" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G22" s="12" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="23" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="B23" s="14" t="s">
         <v>922</v>
@@ -3885,66 +3929,68 @@
       <c r="E23" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="F23" s="7"/>
+      <c r="F23" s="7" t="s">
+        <v>928</v>
+      </c>
       <c r="G23" s="12" t="s">
         <v>925</v>
       </c>
     </row>
     <row r="24" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B25" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="C24" s="6" t="s">
-        <v>922</v>
-      </c>
-      <c r="D24" s="6" t="s">
+      <c r="C25" s="6" t="s">
+        <v>922</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E25" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F25" s="6" t="s">
         <v>928</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="G25" s="10" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+    <row r="26" spans="1:11" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="B26" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>922</v>
-      </c>
       <c r="C26" s="7" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>928</v>
@@ -3961,7 +4007,7 @@
     </row>
     <row r="27" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>922</v>
@@ -3982,14 +4028,14 @@
         <v>925</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="A28" s="14" t="s">
-        <v>742</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C28" s="14" t="s">
+    <row r="28" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="C28" s="7" t="s">
         <v>924</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -4001,64 +4047,64 @@
       <c r="F28" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="12" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:11" s="3" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>742</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>928</v>
+      </c>
+      <c r="G29" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B29" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="B30" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G29" s="10" t="str">
+      <c r="G30" s="10" t="str">
         <f>'Review 1'!A29</f>
         <v>OK</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>621</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>922</v>
@@ -4075,61 +4121,61 @@
       <c r="F31" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G31" s="10" t="str">
+      <c r="G31" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G32" s="10" t="str">
         <f>'Review 1'!A31</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="32" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+    <row r="33" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B32" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F32" s="7" t="s">
+      <c r="B33" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G32" s="10" t="str">
+      <c r="G33" s="10" t="str">
         <f>'Review 1'!A32</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="33" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="34" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>624</v>
-      </c>
-      <c r="B33" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="B34" s="14" t="s">
         <v>922</v>
@@ -4146,65 +4192,65 @@
       <c r="F34" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G34" s="10" t="str">
+      <c r="G34" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G35" s="10" t="str">
         <f>'Review 1'!A34</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="35" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+    <row r="36" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="B35" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F35" s="7" t="s">
+      <c r="B36" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G35" s="10" t="str">
+      <c r="G36" s="10" t="str">
         <f>'Review 1'!A35</f>
         <v>OK</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="36" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="15" t="s">
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="15" t="s">
         <v>694</v>
-      </c>
-      <c r="B36" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>922</v>
@@ -4221,65 +4267,65 @@
       <c r="F37" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G37" s="10" t="str">
+      <c r="G37" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G38" s="10" t="str">
         <f>'Review 1'!A37</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="38" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+    <row r="39" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F38" s="7" t="s">
+      <c r="B39" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G38" s="10" t="str">
+      <c r="G39" s="10" t="str">
         <f>'Review 1'!A38</f>
         <v>OK</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="15" t="s">
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="15" t="s">
         <v>695</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G39" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="15" t="s">
-        <v>696</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>922</v>
@@ -4300,9 +4346,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="41" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>107</v>
+    <row r="41" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>696</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>922</v>
@@ -4319,37 +4365,37 @@
       <c r="F41" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G41" s="10" t="str">
+      <c r="G41" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G42" s="10" t="str">
         <f>'Review 1'!A41</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="15" t="s">
+    <row r="43" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="15" t="s">
         <v>697</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G42" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="15" t="s">
-        <v>698</v>
       </c>
       <c r="B43" s="14" t="s">
         <v>922</v>
@@ -4370,9 +4416,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="44" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>922</v>
@@ -4393,9 +4439,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="45" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>625</v>
+    <row r="45" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="15" t="s">
+        <v>699</v>
       </c>
       <c r="B45" s="14" t="s">
         <v>922</v>
@@ -4412,13 +4458,13 @@
       <c r="F45" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G45" s="10" t="s">
+      <c r="G45" s="11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="46" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>177</v>
+    <row r="46" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>625</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>922</v>
@@ -4435,18 +4481,13 @@
       <c r="F46" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G46" s="10" t="str">
-        <f>'Review 1'!A46</f>
-        <v>OK</v>
-      </c>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G46" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
-        <v>474</v>
+        <v>177</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>922</v>
@@ -4464,7 +4505,7 @@
         <v>924</v>
       </c>
       <c r="G47" s="10" t="str">
-        <f>'Review 1'!A47</f>
+        <f>'Review 1'!A46</f>
         <v>OK</v>
       </c>
       <c r="H47" s="3"/>
@@ -4472,9 +4513,9 @@
       <c r="J47" s="3"/>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="15" t="s">
-        <v>677</v>
+    <row r="48" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>474</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>922</v>
@@ -4491,13 +4532,18 @@
       <c r="F48" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G48" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="G48" s="10" t="str">
+        <f>'Review 1'!A47</f>
+        <v>OK</v>
+      </c>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>922</v>
@@ -4518,9 +4564,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="50" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>213</v>
+    <row r="50" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="15" t="s">
+        <v>700</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>922</v>
@@ -4537,37 +4583,37 @@
       <c r="F50" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G50" s="10" t="str">
+      <c r="G50" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G51" s="10" t="str">
         <f>'Review 1'!A50</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="51" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+    <row r="52" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="B52" s="14" t="s">
         <v>922</v>
@@ -4584,37 +4630,37 @@
       <c r="F52" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G52" s="10" t="str">
+      <c r="G52" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G53" s="10" t="str">
         <f>'Review 1'!A52</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="53" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="15" t="s">
+    <row r="54" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="15" t="s">
         <v>701</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G53" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="6" t="s">
-        <v>629</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>922</v>
@@ -4631,13 +4677,13 @@
       <c r="F54" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="55" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
-        <v>160</v>
+    <row r="55" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>629</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>922</v>
@@ -4654,41 +4700,37 @@
       <c r="F55" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G55" s="10" t="str">
+      <c r="G55" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G56" s="10" t="str">
         <f>'Review 1'!A55</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="56" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="15" t="s">
+    <row r="57" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="15" t="s">
         <v>703</v>
-      </c>
-      <c r="B56" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G56" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>922</v>
@@ -4705,61 +4747,65 @@
       <c r="F57" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G57" s="10" t="str">
+      <c r="G57" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G58" s="10" t="str">
         <f>'Review 1'!A57</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="58" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+    <row r="59" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F58" s="7" t="s">
+      <c r="B59" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F59" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G58" s="10" t="str">
+      <c r="G59" s="10" t="str">
         <f>'Review 1'!A58</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="59" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="15" t="s">
+    <row r="60" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="15" t="s">
         <v>704</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G59" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="6" t="s">
-        <v>632</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>922</v>
@@ -4776,13 +4822,13 @@
       <c r="F60" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="61" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="15" t="s">
-        <v>705</v>
+    <row r="61" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>632</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>922</v>
@@ -4799,13 +4845,13 @@
       <c r="F61" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G61" s="11" t="s">
+      <c r="G61" s="10" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="62" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
-        <v>496</v>
+    <row r="62" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="15" t="s">
+        <v>705</v>
       </c>
       <c r="B62" s="14" t="s">
         <v>922</v>
@@ -4822,93 +4868,89 @@
       <c r="F62" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G62" s="10" t="str">
+      <c r="G62" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G63" s="10" t="str">
         <f>'Review 1'!A62</f>
         <v>OK</v>
       </c>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B63" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F63" s="7" t="s">
+      <c r="B64" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F64" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G63" s="10" t="str">
+      <c r="G64" s="10" t="str">
         <f>'Review 1'!A63</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="64" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+    <row r="65" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B64" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F64" s="7" t="s">
+      <c r="B65" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F65" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G64" s="10" t="str">
+      <c r="G65" s="10" t="str">
         <f>'Review 1'!A64</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="65" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="15" t="s">
+    <row r="66" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="15" t="s">
         <v>706</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G65" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="6" t="s">
-        <v>639</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>922</v>
@@ -4925,13 +4967,17 @@
       <c r="F66" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="G66" s="11" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
-        <v>84</v>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>639</v>
       </c>
       <c r="B67" s="14" t="s">
         <v>922</v>
@@ -4948,18 +4994,13 @@
       <c r="F67" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G67" s="10" t="str">
-        <f>'Review 1'!A67</f>
-        <v>OK</v>
-      </c>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G67" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
-        <v>130</v>
+        <v>84</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>922</v>
@@ -4977,7 +5018,7 @@
         <v>924</v>
       </c>
       <c r="G68" s="10" t="str">
-        <f>'Review 1'!A68</f>
+        <f>'Review 1'!A67</f>
         <v>OK</v>
       </c>
       <c r="H68" s="3"/>
@@ -4985,9 +5026,9 @@
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>634</v>
+    <row r="69" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="7" t="s">
+        <v>130</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>922</v>
@@ -5004,13 +5045,18 @@
       <c r="F69" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G69" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A70" s="15" t="s">
-        <v>707</v>
+      <c r="G69" s="10" t="str">
+        <f>'Review 1'!A68</f>
+        <v>OK</v>
+      </c>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>634</v>
       </c>
       <c r="B70" s="14" t="s">
         <v>922</v>
@@ -5027,13 +5073,13 @@
       <c r="F70" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G70" s="11" t="s">
+      <c r="G70" s="10" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="71" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B71" s="14" t="s">
         <v>922</v>
@@ -5054,9 +5100,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="72" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
-        <v>241</v>
+    <row r="72" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="15" t="s">
+        <v>708</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>922</v>
@@ -5073,89 +5119,89 @@
       <c r="F72" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G72" s="10" t="str">
+      <c r="G72" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G73" s="10" t="str">
         <f>'Review 1'!A72</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="73" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+    <row r="74" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B73" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F73" s="7" t="s">
+      <c r="B74" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F74" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G73" s="10" t="str">
+      <c r="G74" s="10" t="str">
         <f>'Review 1'!A73</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="74" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+    <row r="75" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B74" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F74" s="7" t="s">
+      <c r="B75" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F75" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G74" s="10" t="str">
+      <c r="G75" s="10" t="str">
         <f>'Review 1'!A74</f>
         <v>OK</v>
       </c>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
+      <c r="H75" s="3"/>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
         <v>630</v>
-      </c>
-      <c r="B75" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>922</v>
@@ -5172,37 +5218,37 @@
       <c r="F76" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G76" s="10" t="str">
+      <c r="G76" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F77" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G77" s="10" t="str">
         <f>'Review 1'!A76</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="77" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="6" t="s">
+    <row r="78" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
         <v>628</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D77" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F77" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>922</v>
@@ -5219,41 +5265,37 @@
       <c r="F78" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G78" s="10" t="str">
+      <c r="G78" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G79" s="10" t="str">
         <f>'Review 1'!A78</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="79" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="15" t="s">
+    <row r="80" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="15" t="s">
         <v>709</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D79" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-    </row>
-    <row r="80" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="6" t="s">
-        <v>631</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>922</v>
@@ -5270,7 +5312,7 @@
       <c r="F80" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G80" s="10" t="s">
+      <c r="G80" s="11" t="s">
         <v>605</v>
       </c>
       <c r="H80" s="3"/>
@@ -5278,9 +5320,9 @@
       <c r="J80" s="3"/>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>618</v>
+        <v>631</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>922</v>
@@ -5300,10 +5342,14 @@
       <c r="G81" s="10" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
-        <v>202</v>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>618</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>922</v>
@@ -5320,41 +5366,37 @@
       <c r="F82" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G82" s="10" t="str">
+      <c r="G82" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F83" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G83" s="10" t="str">
         <f>'Review 1'!A82</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="15" t="s">
+    <row r="84" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="15" t="s">
         <v>710</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D83" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F83" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G83" s="11" t="s">
-        <v>605</v>
-      </c>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
-        <v>622</v>
       </c>
       <c r="B84" s="14" t="s">
         <v>922</v>
@@ -5371,13 +5413,17 @@
       <c r="F84" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="G84" s="11" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
-        <v>443</v>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>622</v>
       </c>
       <c r="B85" s="14" t="s">
         <v>922</v>
@@ -5394,61 +5440,61 @@
       <c r="F85" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G85" s="10" t="str">
+      <c r="G85" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F86" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G86" s="10" t="str">
         <f>'Review 1'!A85</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="86" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+    <row r="87" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B86" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F86" s="7" t="s">
+      <c r="B87" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F87" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G86" s="10" t="str">
+      <c r="G87" s="10" t="str">
         <f>'Review 1'!A86</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="87" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A87" s="15" t="s">
+    <row r="88" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="15" t="s">
         <v>711</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G87" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A88" s="15" t="s">
-        <v>712</v>
       </c>
       <c r="B88" s="14" t="s">
         <v>922</v>
@@ -5469,9 +5515,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="89" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B89" s="14" t="s">
         <v>922</v>
@@ -5492,9 +5538,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="90" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B90" s="14" t="s">
         <v>922</v>
@@ -5514,14 +5560,10 @@
       <c r="G90" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="H90" s="3"/>
-      <c r="I90" s="3"/>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
-        <v>80</v>
+    </row>
+    <row r="91" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="15" t="s">
+        <v>714</v>
       </c>
       <c r="B91" s="14" t="s">
         <v>922</v>
@@ -5538,13 +5580,17 @@
       <c r="F91" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="G91" s="11" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B92" s="14" t="s">
         <v>922</v>
@@ -5561,61 +5607,61 @@
       <c r="F92" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G92" s="10" t="str">
+      <c r="G92" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G93" s="10" t="str">
         <f>'Review 1'!A92</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="93" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+    <row r="94" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B93" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E93" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F93" s="7" t="s">
+      <c r="B94" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F94" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G93" s="10" t="str">
+      <c r="G94" s="10" t="str">
         <f>'Review 1'!A93</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="94" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A94" s="15" t="s">
+    <row r="95" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="15" t="s">
         <v>715</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E94" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F94" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G94" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A95" s="15" t="s">
-        <v>716</v>
       </c>
       <c r="B95" s="14" t="s">
         <v>922</v>
@@ -5636,9 +5682,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="96" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="15" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B96" s="14" t="s">
         <v>922</v>
@@ -5658,14 +5704,10 @@
       <c r="G96" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="H96" s="3"/>
-      <c r="I96" s="3"/>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
-        <v>137</v>
+    </row>
+    <row r="97" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="15" t="s">
+        <v>718</v>
       </c>
       <c r="B97" s="14" t="s">
         <v>922</v>
@@ -5682,37 +5724,41 @@
       <c r="F97" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G97" s="10" t="str">
+      <c r="G97" s="11" t="s">
+        <v>605</v>
+      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F98" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G98" s="10" t="str">
         <f>'Review 1'!A97</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="98" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A98" s="15" t="s">
+    <row r="99" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="15" t="s">
         <v>719</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C98" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D98" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E98" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F98" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="6" t="s">
-        <v>633</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>922</v>
@@ -5729,17 +5775,13 @@
       <c r="F99" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G99" s="10" t="s">
+      <c r="G99" s="11" t="s">
         <v>605</v>
       </c>
-      <c r="H99" s="3"/>
-      <c r="I99" s="3"/>
-      <c r="J99" s="3"/>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
-        <v>506</v>
+    </row>
+    <row r="100" spans="1:11" s="2" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>633</v>
       </c>
       <c r="B100" s="14" t="s">
         <v>922</v>
@@ -5756,37 +5798,41 @@
       <c r="F100" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G100" s="10" t="str">
+      <c r="G100" s="10" t="s">
+        <v>605</v>
+      </c>
+      <c r="H100" s="3"/>
+      <c r="I100" s="3"/>
+      <c r="J100" s="3"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F101" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G101" s="10" t="str">
         <f>'Review 1'!A100</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="101" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A101" s="6" t="s">
+    <row r="102" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
         <v>635</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D101" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E101" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F101" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A102" s="6" t="s">
-        <v>617</v>
       </c>
       <c r="B102" s="14" t="s">
         <v>922</v>
@@ -5807,9 +5853,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="103" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A103" s="15" t="s">
-        <v>722</v>
+    <row r="103" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>617</v>
       </c>
       <c r="B103" s="14" t="s">
         <v>922</v>
@@ -5826,13 +5872,13 @@
       <c r="F103" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G103" s="11" t="s">
+      <c r="G103" s="10" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="104" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
-        <v>235</v>
+    <row r="104" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="15" t="s">
+        <v>722</v>
       </c>
       <c r="B104" s="14" t="s">
         <v>922</v>
@@ -5849,61 +5895,61 @@
       <c r="F104" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G104" s="10" t="str">
+      <c r="G104" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G105" s="10" t="str">
         <f>'Review 1'!A104</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="105" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
+    <row r="106" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="B105" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D105" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E105" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F105" s="7" t="s">
+      <c r="B106" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F106" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G105" s="10" t="str">
+      <c r="G106" s="10" t="str">
         <f>'Review 1'!A105</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="106" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A106" s="15" t="s">
+    <row r="107" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="15" t="s">
         <v>723</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C106" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D106" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E106" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F106" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G106" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A107" s="15" t="s">
-        <v>724</v>
       </c>
       <c r="B107" s="14" t="s">
         <v>922</v>
@@ -5924,9 +5970,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="108" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="15" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B108" s="14" t="s">
         <v>922</v>
@@ -5947,9 +5993,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="109" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
-        <v>297</v>
+    <row r="109" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="15" t="s">
+        <v>725</v>
       </c>
       <c r="B109" s="14" t="s">
         <v>922</v>
@@ -5966,61 +6012,61 @@
       <c r="F109" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G109" s="10" t="str">
+      <c r="G109" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="B110" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D110" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F110" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G110" s="10" t="str">
         <f>'Review 1'!A109</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="110" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
+    <row r="111" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B110" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C110" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F110" s="7" t="s">
+      <c r="B111" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D111" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F111" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G110" s="10" t="str">
+      <c r="G111" s="10" t="str">
         <f>'Review 1'!A110</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="111" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A111" s="15" t="s">
+    <row r="112" spans="1:11" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="15" t="s">
         <v>726</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D111" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E111" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F111" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G111" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="B112" s="14" t="s">
         <v>922</v>
@@ -6037,37 +6083,37 @@
       <c r="F112" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G112" s="10" t="str">
+      <c r="G112" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B113" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D113" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E113" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F113" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G113" s="10" t="str">
         <f>'Review 1'!A112</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A113" s="6" t="s">
+    <row r="114" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
         <v>615</v>
-      </c>
-      <c r="B113" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C113" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D113" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F113" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G113" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="B114" s="14" t="s">
         <v>922</v>
@@ -6084,61 +6130,61 @@
       <c r="F114" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G114" s="10" t="str">
+      <c r="G114" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B115" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F115" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G115" s="10" t="str">
         <f>'Review 1'!A114</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+    <row r="116" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B115" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C115" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D115" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F115" s="7" t="s">
+      <c r="B116" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E116" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F116" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G115" s="10" t="str">
+      <c r="G116" s="10" t="str">
         <f>'Review 1'!A115</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A116" s="15" t="s">
+    <row r="117" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="15" t="s">
         <v>727</v>
-      </c>
-      <c r="B116" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D116" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F116" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G116" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="B117" s="14" t="s">
         <v>922</v>
@@ -6155,85 +6201,85 @@
       <c r="F117" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G117" s="10" t="str">
+      <c r="G117" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F118" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G118" s="10" t="str">
         <f>'Review 1'!A117</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
+    <row r="119" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B118" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D118" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F118" s="7" t="s">
+      <c r="B119" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F119" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G118" s="10" t="str">
+      <c r="G119" s="10" t="str">
         <f>'Review 1'!A118</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+    <row r="120" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B119" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E119" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F119" s="7" t="s">
+      <c r="B120" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D120" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F120" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G119" s="10" t="str">
+      <c r="G120" s="10" t="str">
         <f>'Review 1'!A119</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A120" s="15" t="s">
+    <row r="121" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="s">
         <v>729</v>
-      </c>
-      <c r="B120" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E120" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F120" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G120" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="B121" s="14" t="s">
         <v>922</v>
@@ -6250,37 +6296,37 @@
       <c r="F121" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G121" s="10" t="str">
+      <c r="G121" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B122" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D122" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G122" s="10" t="str">
         <f>'Review 1'!A121</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="3" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="s">
+    <row r="123" spans="1:7" s="3" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="15" t="s">
         <v>730</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C122" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E122" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G122" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="B123" s="14" t="s">
         <v>922</v>
@@ -6297,85 +6343,85 @@
       <c r="F123" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G123" s="10" t="str">
+      <c r="G123" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B124" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D124" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F124" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G124" s="10" t="str">
         <f>'Review 1'!A123</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
+    <row r="125" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B124" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C124" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D124" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E124" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F124" s="7" t="s">
+      <c r="B125" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D125" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F125" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G124" s="10" t="str">
+      <c r="G125" s="10" t="str">
         <f>'Review 1'!A124</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
+    <row r="126" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B125" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C125" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D125" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E125" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F125" s="7" t="s">
+      <c r="B126" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F126" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G125" s="10" t="str">
+      <c r="G126" s="10" t="str">
         <f>'Review 1'!A125</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="15" t="s">
+    <row r="127" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="s">
         <v>731</v>
-      </c>
-      <c r="B126" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C126" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D126" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F126" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G126" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="s">
-        <v>732</v>
       </c>
       <c r="B127" s="14" t="s">
         <v>922</v>
@@ -6396,9 +6442,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="15" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B128" s="14" t="s">
         <v>922</v>
@@ -6419,9 +6465,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
-        <v>458</v>
+    <row r="129" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="s">
+        <v>733</v>
       </c>
       <c r="B129" s="14" t="s">
         <v>922</v>
@@ -6438,109 +6484,109 @@
       <c r="F129" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G129" s="10" t="str">
+      <c r="G129" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="B130" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F130" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G130" s="10" t="str">
         <f>'Review 1'!A129</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
+    <row r="131" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="B130" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D130" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F130" s="7" t="s">
+      <c r="B131" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F131" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G130" s="10" t="str">
+      <c r="G131" s="10" t="str">
         <f>'Review 1'!A130</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+    <row r="132" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="7" t="s">
         <v>470</v>
       </c>
-      <c r="B131" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D131" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F131" s="7" t="s">
+      <c r="B132" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F132" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G131" s="10" t="str">
+      <c r="G132" s="10" t="str">
         <f>'Review 1'!A131</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="132" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
+    <row r="133" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="B132" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D132" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E132" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F132" s="7" t="s">
+      <c r="B133" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F133" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G132" s="10" t="str">
+      <c r="G133" s="10" t="str">
         <f>'Review 1'!A132</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="s">
+    <row r="134" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="15" t="s">
         <v>735</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D133" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E133" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F133" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G133" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A134" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="B134" s="14" t="s">
         <v>922</v>
@@ -6557,37 +6603,37 @@
       <c r="F134" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G134" s="10" t="str">
+      <c r="G134" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D135" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F135" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G135" s="10" t="str">
         <f>'Review 1'!A134</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A135" s="15" t="s">
+    <row r="136" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="15" t="s">
         <v>736</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D135" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E135" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F135" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G135" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A136" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="B136" s="14" t="s">
         <v>922</v>
@@ -6604,61 +6650,61 @@
       <c r="F136" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G136" s="10" t="str">
+      <c r="G136" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B137" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D137" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G137" s="10" t="str">
         <f>'Review 1'!A136</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
+    <row r="138" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B137" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D137" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E137" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F137" s="7" t="s">
+      <c r="B138" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D138" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F138" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G137" s="10" t="str">
+      <c r="G138" s="10" t="str">
         <f>'Review 1'!A137</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A138" s="6" t="s">
+    <row r="139" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="B138" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F138" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G138" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
-        <v>489</v>
       </c>
       <c r="B139" s="14" t="s">
         <v>922</v>
@@ -6675,37 +6721,37 @@
       <c r="F139" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G139" s="10" t="str">
+      <c r="G139" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="B140" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D140" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G140" s="10" t="str">
         <f>'Review 1'!A139</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A140" s="15" t="s">
+    <row r="141" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="15" t="s">
         <v>737</v>
-      </c>
-      <c r="B140" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C140" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D140" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F140" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G140" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A141" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="B141" s="14" t="s">
         <v>922</v>
@@ -6722,61 +6768,61 @@
       <c r="F141" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G141" s="10" t="str">
+      <c r="G141" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B142" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C142" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D142" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G142" s="10" t="str">
         <f>'Review 1'!A141</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A142" s="7" t="s">
+    <row r="143" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B142" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C142" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D142" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E142" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F142" s="7" t="s">
+      <c r="B143" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D143" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F143" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G142" s="10" t="str">
+      <c r="G143" s="10" t="str">
         <f>'Review 1'!A142</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A143" s="6" t="s">
+    <row r="144" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
         <v>638</v>
-      </c>
-      <c r="B143" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E143" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F143" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A144" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="B144" s="14" t="s">
         <v>922</v>
@@ -6793,37 +6839,37 @@
       <c r="F144" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G144" s="10" t="str">
+      <c r="G144" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B145" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C145" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D145" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F145" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G145" s="10" t="str">
         <f>'Review 1'!A144</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="145" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A145" s="15" t="s">
+    <row r="146" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="15" t="s">
         <v>738</v>
-      </c>
-      <c r="B145" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C145" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D145" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E145" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F145" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G145" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="B146" s="14" t="s">
         <v>922</v>
@@ -6840,61 +6886,61 @@
       <c r="F146" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G146" s="10" t="str">
+      <c r="G146" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="B147" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D147" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F147" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G147" s="10" t="str">
         <f>'Review 1'!A146</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A147" s="7" t="s">
+    <row r="148" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B147" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D147" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F147" s="7" t="s">
+      <c r="B148" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D148" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F148" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G147" s="10" t="str">
+      <c r="G148" s="10" t="str">
         <f>'Review 1'!A147</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A148" s="15" t="s">
+    <row r="149" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="15" t="s">
         <v>739</v>
-      </c>
-      <c r="B148" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D148" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E148" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F148" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G148" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="149" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A149" s="15" t="s">
-        <v>740</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>922</v>
@@ -6915,9 +6961,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A150" s="6" t="s">
-        <v>626</v>
+    <row r="150" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="15" t="s">
+        <v>740</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>922</v>
@@ -6934,13 +6980,13 @@
       <c r="F150" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G150" s="10" t="s">
+      <c r="G150" s="11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A151" s="15" t="s">
-        <v>741</v>
+    <row r="151" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>626</v>
       </c>
       <c r="B151" s="14" t="s">
         <v>922</v>
@@ -6957,13 +7003,13 @@
       <c r="F151" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G151" s="11" t="s">
+      <c r="G151" s="10" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A152" s="6" t="s">
-        <v>614</v>
+    <row r="152" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="15" t="s">
+        <v>741</v>
       </c>
       <c r="B152" s="14" t="s">
         <v>922</v>
@@ -6980,13 +7026,13 @@
       <c r="F152" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G152" s="10" t="s">
+      <c r="G152" s="11" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A153" s="15" t="s">
-        <v>743</v>
+    <row r="153" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>614</v>
       </c>
       <c r="B153" s="14" t="s">
         <v>922</v>
@@ -7003,13 +7049,13 @@
       <c r="F153" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G153" s="11" t="s">
+      <c r="G153" s="10" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B154" s="14" t="s">
         <v>922</v>
@@ -7030,9 +7076,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B155" s="14" t="s">
         <v>922</v>
@@ -7053,9 +7099,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B156" s="14" t="s">
         <v>922</v>
@@ -7076,9 +7122,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A157" s="7" t="s">
-        <v>462</v>
+    <row r="157" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="15" t="s">
+        <v>746</v>
       </c>
       <c r="B157" s="14" t="s">
         <v>922</v>
@@ -7095,37 +7141,37 @@
       <c r="F157" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G157" s="10" t="str">
+      <c r="G157" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="B158" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G158" s="10" t="str">
         <f>'Review 1'!A157</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A158" s="15" t="s">
+    <row r="159" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="15" t="s">
         <v>747</v>
-      </c>
-      <c r="B158" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F158" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G158" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A159" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="B159" s="14" t="s">
         <v>922</v>
@@ -7142,109 +7188,109 @@
       <c r="F159" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G159" s="10" t="str">
+      <c r="G159" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B160" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D160" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F160" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G160" s="10" t="str">
         <f>'Review 1'!A159</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A160" s="7" t="s">
+    <row r="161" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B160" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C160" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D160" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E160" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F160" s="7" t="s">
+      <c r="B161" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D161" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F161" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G160" s="10" t="str">
+      <c r="G161" s="10" t="str">
         <f>'Review 1'!A160</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A161" s="7" t="s">
+    <row r="162" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="B161" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D161" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E161" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F161" s="7" t="s">
+      <c r="B162" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D162" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F162" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G161" s="10" t="str">
+      <c r="G162" s="10" t="str">
         <f>'Review 1'!A161</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="162" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
+    <row r="163" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B162" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F162" s="7" t="s">
+      <c r="B163" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D163" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F163" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G162" s="10" t="str">
+      <c r="G163" s="10" t="str">
         <f>'Review 1'!A162</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A163" s="15" t="s">
+    <row r="164" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="15" t="s">
         <v>749</v>
-      </c>
-      <c r="B163" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D163" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F163" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G163" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A164" s="7" t="s">
-        <v>503</v>
       </c>
       <c r="B164" s="14" t="s">
         <v>922</v>
@@ -7261,61 +7307,61 @@
       <c r="F164" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G164" s="10" t="str">
+      <c r="G164" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="B165" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D165" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F165" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G165" s="10" t="str">
         <f>'Review 1'!A164</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A165" s="7" t="s">
+    <row r="166" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B165" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D165" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E165" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F165" s="7" t="s">
+      <c r="B166" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D166" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F166" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G165" s="10" t="str">
+      <c r="G166" s="10" t="str">
         <f>'Review 1'!A165</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A166" s="15" t="s">
+    <row r="167" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="15" t="s">
         <v>750</v>
-      </c>
-      <c r="B166" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D166" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F166" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G166" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
-        <v>492</v>
       </c>
       <c r="B167" s="14" t="s">
         <v>922</v>
@@ -7332,37 +7378,37 @@
       <c r="F167" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G167" s="10" t="str">
+      <c r="G167" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="B168" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F168" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G168" s="10" t="str">
         <f>'Review 1'!A167</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A168" s="15" t="s">
+    <row r="169" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="15" t="s">
         <v>751</v>
-      </c>
-      <c r="B168" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D168" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E168" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F168" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G168" s="11" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A169" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="B169" s="14" t="s">
         <v>922</v>
@@ -7379,61 +7425,61 @@
       <c r="F169" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G169" s="10" t="str">
+      <c r="G169" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="B170" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F170" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G170" s="10" t="str">
         <f>'Review 1'!A169</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A170" s="7" t="s">
+    <row r="171" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B170" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D170" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E170" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F170" s="7" t="s">
+      <c r="B171" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F171" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G170" s="10" t="str">
+      <c r="G171" s="10" t="str">
         <f>'Review 1'!A170</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="171" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
+    <row r="172" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
         <v>637</v>
-      </c>
-      <c r="B171" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C171" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D171" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E171" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F171" s="7" t="s">
-        <v>924</v>
-      </c>
-      <c r="G171" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>627</v>
       </c>
       <c r="B172" s="14" t="s">
         <v>922</v>
@@ -7454,9 +7500,9 @@
         <v>605</v>
       </c>
     </row>
-    <row r="173" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A173" s="7" t="s">
-        <v>216</v>
+    <row r="173" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>627</v>
       </c>
       <c r="B173" s="14" t="s">
         <v>922</v>
@@ -7473,132 +7519,132 @@
       <c r="F173" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G173" s="10" t="str">
+      <c r="G173" s="10" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="B174" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F174" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G174" s="10" t="str">
         <f>'Review 1'!A173</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="174" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A174" s="7" t="s">
+    <row r="175" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B174" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C174" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D174" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E174" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F174" s="7" t="s">
+      <c r="B175" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F175" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G174" s="10" t="str">
+      <c r="G175" s="10" t="str">
         <f>'Review 1'!A174</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A175" s="7" t="s">
+    <row r="176" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="B175" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C175" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D175" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E175" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F175" s="7" t="s">
+      <c r="B176" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F176" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G175" s="10" t="str">
+      <c r="G176" s="10" t="str">
         <f>'Review 1'!A175</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A176" s="7" t="s">
+    <row r="177" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B176" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F176" s="7" t="s">
+      <c r="B177" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F177" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G176" s="10" t="str">
+      <c r="G177" s="10" t="str">
         <f>'Review 1'!A176</f>
         <v>OK</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
+    <row r="178" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B177" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D177" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E177" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F177" s="7" t="s">
+      <c r="B178" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F178" s="7" t="s">
         <v>924</v>
       </c>
-      <c r="G177" s="10" t="s">
+      <c r="G178" s="10" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A178" s="14" t="s">
+    <row r="179" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="14" t="s">
         <v>721</v>
-      </c>
-      <c r="B178" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="C178" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="D178" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="E178" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="F178" s="14" t="s">
-        <v>929</v>
-      </c>
-      <c r="G178" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A179" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="B179" s="14" t="s">
         <v>922</v>
@@ -7619,9 +7665,9 @@
         <v>925</v>
       </c>
     </row>
-    <row r="180" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="7" t="s">
-        <v>63</v>
+        <v>244</v>
       </c>
       <c r="B180" s="14" t="s">
         <v>922</v>
@@ -7642,9 +7688,9 @@
         <v>925</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="7" t="s">
-        <v>264</v>
+        <v>63</v>
       </c>
       <c r="B181" s="14" t="s">
         <v>922</v>
@@ -7665,9 +7711,9 @@
         <v>925</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="7" t="s">
-        <v>499</v>
+        <v>264</v>
       </c>
       <c r="B182" s="14" t="s">
         <v>922</v>
@@ -7688,9 +7734,9 @@
         <v>925</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>636</v>
+    <row r="183" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="7" t="s">
+        <v>499</v>
       </c>
       <c r="B183" s="14" t="s">
         <v>922</v>
@@ -7711,9 +7757,9 @@
         <v>925</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>619</v>
+        <v>636</v>
       </c>
       <c r="B184" s="14" t="s">
         <v>922</v>
@@ -7734,102 +7780,102 @@
         <v>925</v>
       </c>
     </row>
-    <row r="185" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A185" s="7" t="s">
+    <row r="185" spans="1:7" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B185" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C185" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="D185" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="F185" s="14" t="s">
+        <v>929</v>
+      </c>
+      <c r="G185" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B185" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="C185" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D185" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E185" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F185" s="7" t="s">
+      <c r="B186" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F186" s="7" t="s">
         <v>931</v>
       </c>
-      <c r="G185" s="12" t="s">
+      <c r="G186" s="12" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A186" s="14" t="s">
+    <row r="187" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="14" t="s">
         <v>702</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="D186" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>922</v>
-      </c>
-      <c r="F186" s="14" t="s">
+      <c r="B187" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="F187" s="14" t="s">
         <v>931</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G187" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
+    <row r="188" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
         <v>932</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="C187" s="3" t="s">
+      <c r="B188" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>924</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D188" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="E187" s="3" t="s">
+      <c r="E188" s="3" t="s">
         <v>928</v>
       </c>
-      <c r="F187" s="7" t="s">
+      <c r="F188" s="7" t="s">
         <v>928</v>
       </c>
-      <c r="G187" s="10" t="s">
+      <c r="G188" s="10" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="188" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A188" s="18" t="s">
+    <row r="189" spans="1:7" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="18" t="s">
         <v>935</v>
       </c>
-      <c r="B188" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="E188" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="F188" s="22" t="s">
-        <v>924</v>
-      </c>
-      <c r="G188" s="10" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A189" s="18" t="s">
-        <v>938</v>
-      </c>
       <c r="B189" s="3" t="s">
         <v>922</v>
       </c>
@@ -7842,16 +7888,16 @@
       <c r="E189" s="3" t="s">
         <v>922</v>
       </c>
-      <c r="F189" s="7" t="s">
+      <c r="F189" s="22" t="s">
         <v>924</v>
       </c>
       <c r="G189" s="10" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>941</v>
+    <row r="190" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="18" t="s">
+        <v>938</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>922</v>
@@ -7872,13 +7918,28 @@
         <v>605</v>
       </c>
     </row>
-    <row r="191" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A191" s="7"/>
-      <c r="B191" s="7"/>
-      <c r="C191" s="7"/>
-      <c r="D191" s="7"/>
-      <c r="E191" s="7"/>
-      <c r="F191" s="7"/>
+    <row r="191" spans="1:7" ht="15" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>941</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="F191" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="G191" s="10" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="192" spans="1:7" ht="15" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
@@ -13736,15 +13797,34 @@
       <c r="E923" s="7"/>
       <c r="F923" s="7"/>
     </row>
+    <row r="924" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A924" s="7"/>
+      <c r="B924" s="7"/>
+      <c r="C924" s="7"/>
+      <c r="D924" s="7"/>
+      <c r="E924" s="7"/>
+      <c r="F924" s="7"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:G186" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G186">
-      <sortCondition ref="G1:G186"/>
+  <autoFilter ref="A2:G191" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="N/A"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G187">
+      <sortCondition ref="G2:G187"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G186">
-    <sortCondition ref="A1:A186"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G187">
+    <sortCondition ref="A2:A187"/>
   </sortState>
+  <mergeCells count="4">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="G1:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -26056,7 +26136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>690</v>
       </c>
@@ -26086,7 +26166,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
         <v>690</v>
       </c>
@@ -26118,7 +26198,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="15" t="s">
         <v>690</v>
       </c>
@@ -26150,7 +26230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
         <v>690</v>
       </c>
@@ -26180,7 +26260,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>690</v>
       </c>
@@ -26212,7 +26292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="15" t="s">
         <v>690</v>
       </c>
@@ -26242,7 +26322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>690</v>
       </c>
@@ -26274,7 +26354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>690</v>
       </c>
@@ -26306,7 +26386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>690</v>
       </c>
@@ -26336,7 +26416,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>690</v>
       </c>
@@ -26366,7 +26446,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>690</v>
       </c>
@@ -26398,7 +26478,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
         <v>690</v>
       </c>
@@ -26428,7 +26508,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="15" t="s">
         <v>690</v>
       </c>
@@ -26458,7 +26538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>690</v>
       </c>
@@ -26488,7 +26568,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>690</v>
       </c>
@@ -26518,7 +26598,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
         <v>690</v>
       </c>
@@ -26550,7 +26630,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
         <v>690</v>
       </c>
@@ -26612,7 +26692,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>690</v>
       </c>
@@ -26822,7 +26902,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="15" t="s">
         <v>691</v>
       </c>
@@ -27028,7 +27108,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="15" t="s">
         <v>691</v>
       </c>
@@ -27058,7 +27138,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="15" t="s">
         <v>691</v>
       </c>
@@ -27759,7 +27839,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="15" t="s">
         <v>691</v>
       </c>
@@ -28043,7 +28123,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="153" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A96" s="15" t="s">
         <v>692</v>
       </c>
@@ -28073,7 +28153,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="15" t="s">
         <v>692</v>
       </c>
@@ -28103,7 +28183,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="153" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A98" s="15" t="s">
         <v>692</v>
       </c>
@@ -28135,7 +28215,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="15" t="s">
         <v>692</v>
       </c>
@@ -28281,7 +28361,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="15" t="s">
         <v>692</v>
       </c>
@@ -28311,7 +28391,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="15" t="s">
         <v>692</v>
       </c>
@@ -28343,7 +28423,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="15" t="s">
         <v>692</v>
       </c>
@@ -28403,7 +28483,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="191.25" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A108" s="15" t="s">
         <v>692</v>
       </c>
@@ -28495,7 +28575,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
         <v>692</v>
       </c>
@@ -28555,7 +28635,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="15" t="s">
         <v>692</v>
       </c>
@@ -28587,7 +28667,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="15" t="s">
         <v>692</v>
       </c>
@@ -28617,7 +28697,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="15" t="s">
         <v>692</v>
       </c>
@@ -28675,7 +28755,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="15" t="s">
         <v>692</v>
       </c>
@@ -28849,7 +28929,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="15" t="s">
         <v>692</v>
       </c>
@@ -28909,7 +28989,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="102" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="15" t="s">
         <v>692</v>
       </c>
@@ -29173,7 +29253,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="15" t="s">
         <v>692</v>
       </c>
@@ -29231,7 +29311,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A136" s="15" t="s">
         <v>692</v>
       </c>
@@ -29395,7 +29475,7 @@
       <c r="I141" s="15"/>
       <c r="J141" s="6"/>
     </row>
-    <row r="142" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A142" s="15" t="s">
         <v>692</v>
       </c>
@@ -29439,7 +29519,7 @@
       <c r="I143" s="15"/>
       <c r="J143" s="6"/>
     </row>
-    <row r="144" spans="1:10" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A144" s="15" t="s">
         <v>691</v>
       </c>
@@ -29481,7 +29561,7 @@
       <c r="I145" s="15"/>
       <c r="J145" s="6"/>
     </row>
-    <row r="146" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>691</v>
       </c>
@@ -29503,7 +29583,7 @@
       <c r="I146" s="15"/>
       <c r="J146" s="6"/>
     </row>
-    <row r="147" spans="1:10" ht="51" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A147" s="15" t="s">
         <v>691</v>
       </c>
@@ -29545,7 +29625,7 @@
       <c r="I148" s="15"/>
       <c r="J148" s="6"/>
     </row>
-    <row r="149" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A149" s="15" t="s">
         <v>691</v>
       </c>
@@ -29687,7 +29767,7 @@
       <c r="I155" s="15"/>
       <c r="J155" s="6"/>
     </row>
-    <row r="156" spans="1:10" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="15" t="s">
         <v>693</v>
       </c>
@@ -29749,7 +29829,7 @@
       <c r="I158" s="15"/>
       <c r="J158" s="6"/>
     </row>
-    <row r="159" spans="1:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="15" t="s">
         <v>690</v>
       </c>
@@ -29853,7 +29933,7 @@
       <c r="I163" s="15"/>
       <c r="J163" s="6"/>
     </row>
-    <row r="164" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A164" s="15" t="s">
         <v>690</v>
       </c>
@@ -29875,7 +29955,7 @@
       <c r="I164" s="15"/>
       <c r="J164" s="6"/>
     </row>
-    <row r="165" spans="1:10" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="15" t="s">
         <v>691</v>
       </c>

--- a/02 screening results.xlsx
+++ b/02 screening results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Desktop\Repos\mde4dts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B87864-F6D1-4350-A43D-D8F255698C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D8FAD-AC74-40FE-99E8-3DCB36C666CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exclusion Results" sheetId="2" r:id="rId1"/>
@@ -3360,8 +3360,8 @@
   </sheetPr>
   <dimension ref="A1:K924"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:G191"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -13806,8 +13806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC333BD6-FE25-4D66-90C9-A3143490C461}">
   <dimension ref="A1:H923"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
-      <selection activeCell="B186" sqref="B186"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
